--- a/planning/Templates/granule_template.xlsx
+++ b/planning/Templates/granule_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsbie\Documents\Universiteit\Master\Jaar 2\MEP\Code\IbM-Fermentation\IbM-Fermentation\planning\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD1F73-D423-4F41-85CD-9A5195878B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F750B3E-D0BF-4008-BBF2-8299D33C2982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="808" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="11568" tabRatio="808" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -1339,18 +1339,12 @@
     <t>Average expected radius of all granules</t>
   </si>
   <si>
-    <t>density granule</t>
-  </si>
-  <si>
     <t>g/L</t>
   </si>
   <si>
     <t>How dense are the granules</t>
   </si>
   <si>
-    <t>density reactor</t>
-  </si>
-  <si>
     <t>How much biomass (at most) is in the reactor</t>
   </si>
   <si>
@@ -1415,6 +1409,12 @@
   </si>
   <si>
     <t>Time (in simulation) between analysing balances</t>
+  </si>
+  <si>
+    <t>Density granule</t>
+  </si>
+  <si>
+    <t>Density reactor</t>
   </si>
 </sst>
 </file>
@@ -4291,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="121">
         <f>Influent!B1/2</f>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="121">
         <f>Influent!B2/2</f>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B2" s="151" t="s">
         <v>85</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B3" s="151" t="s">
         <v>85</v>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="13" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B13" s="103">
         <f>IF(COUNT(B2,C2)=2, EXP(($C$10+B2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="14" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B14" s="103">
         <f>IF(COUNT(B3,C3)=2, EXP(($C$10+B3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B24" s="152" t="s">
         <v>86</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B25" s="152" t="s">
         <v>86</v>
@@ -5275,10 +5275,10 @@
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
       <c r="B1" s="136" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" s="136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D1" s="136" t="s">
         <v>17</v>
@@ -5287,12 +5287,12 @@
         <v>76</v>
       </c>
       <c r="F1" s="275" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="100">
         <v>1.0000000000000001E-5</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" s="100">
         <v>0</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="100">
         <v>0</v>
@@ -5382,21 +5382,21 @@
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
       <c r="B1" s="136" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" s="136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D1" s="136" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="275" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="100">
         <v>0</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" s="100">
         <v>0</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="100">
         <v>0</v>
@@ -5484,18 +5484,18 @@
         <v>226</v>
       </c>
       <c r="F1" s="270" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="100">
         <v>0.01</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D2" s="138">
         <f>0.25/24</f>
@@ -5509,13 +5509,13 @@
     </row>
     <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3" s="100">
         <v>0.01</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="138">
         <f>0.25/24</f>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="100">
         <v>0.01</v>
@@ -5580,17 +5580,17 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
       <c r="B1" s="276" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C1" s="277"/>
       <c r="D1" s="278"/>
       <c r="E1" s="276" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F1" s="277"/>
       <c r="G1" s="278"/>
       <c r="H1" s="277" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I1" s="277"/>
       <c r="J1" s="278"/>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="164">
         <v>-1</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="166">
         <v>0</v>
@@ -8618,7 +8618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B14" s="103">
         <v>4</v>
@@ -8846,7 +8846,7 @@
         <v>93</v>
       </c>
       <c r="D14" s="107" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" s="264"/>
     </row>
@@ -8925,7 +8925,7 @@
         <v>90</v>
       </c>
       <c r="D19" s="107" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E19" s="264"/>
     </row>
@@ -9043,10 +9043,10 @@
         <v>0.2</v>
       </c>
       <c r="C27" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="112" t="s">
         <v>265</v>
-      </c>
-      <c r="D27" s="112" t="s">
-        <v>267</v>
       </c>
       <c r="E27" s="264"/>
     </row>
@@ -9058,10 +9058,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D28" s="112" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E28" s="264"/>
     </row>
@@ -9105,8 +9105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9169,7 +9169,7 @@
         <v>161</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" s="119" t="s">
         <v>90</v>
@@ -9273,31 +9273,31 @@
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="B11" s="225">
         <v>100</v>
       </c>
       <c r="C11" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="226" t="s">
         <v>255</v>
-      </c>
-      <c r="D11" s="226" t="s">
-        <v>256</v>
       </c>
       <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="B12" s="227">
         <v>3</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="228" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="69"/>
     </row>
@@ -9438,7 +9438,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="116">
         <f>1*10^(-9)*3600</f>
@@ -9456,7 +9456,7 @@
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="116">
         <f>1*10^(-9)*3600</f>
@@ -9683,7 +9683,7 @@
         <v>90</v>
       </c>
       <c r="D6" s="232" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -9718,7 +9718,7 @@
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="174" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" s="122">
         <v>12</v>
@@ -9727,12 +9727,12 @@
         <v>90</v>
       </c>
       <c r="D9" s="233" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="234" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10" s="186">
         <v>12</v>
@@ -9741,7 +9741,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="235" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -9791,7 +9791,7 @@
         <v>187</v>
       </c>
       <c r="B14" s="128" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C14" s="129" t="s">
         <v>90</v>
@@ -9987,10 +9987,10 @@
         <v>0.05</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7" s="231" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -10108,7 +10108,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="121">
         <f>2*Parameters!B3</f>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="121">
         <f>2*Parameters!B3</f>

--- a/planning/Templates/granule_template.xlsx
+++ b/planning/Templates/granule_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsbie\Documents\Universiteit\Master\Jaar 2\MEP\Code\IbM-Fermentation\IbM-Fermentation\planning\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F750B3E-D0BF-4008-BBF2-8299D33C2982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4FF2F9-FF7C-4F8E-8B1C-F3279C8A359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="11568" tabRatio="808" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="808" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="280">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -1399,9 +1399,6 @@
     <t>Fill in the yields [mol-X/mol-eD] &amp; electron donor molecules for each species. If the maintenance and growth rate are to be set, fill them in as well [1/h]. If these are to be calculated on the fly, leave blank or fill in 'NA'. The formula for the maintenance and growth rate should manually be added to the calculate_max_growth_rate_and_maint.m script</t>
   </si>
   <si>
-    <t>Add columns with per bacterial species the Ki values [M] per substrate. Make sure that the compound and bacterium names match the rest of the Excel file</t>
-  </si>
-  <si>
     <t>Add columns with per bacterial species the Ks values [M] per substrate. Make sure that the compound and bacterium names match the rest of the Excel file</t>
   </si>
   <si>
@@ -1415,6 +1412,9 @@
   </si>
   <si>
     <t>Density reactor</t>
+  </si>
+  <si>
+    <t>Add columns with per bacterial species the Ki values [M] per substrate. Make sure that the compound and bacterium names match the rest of the Excel file and that all the compounds with Ks values are also present here, in the same order</t>
   </si>
 </sst>
 </file>
@@ -5287,7 +5287,7 @@
         <v>76</v>
       </c>
       <c r="F1" s="275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5366,20 +5366,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6FAE86-699B-425D-9552-4ABBD32F0DFA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="2" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="68.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
       <c r="B1" s="136" t="s">
         <v>271</v>
@@ -5390,11 +5390,14 @@
       <c r="D1" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="136" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>268</v>
       </c>
@@ -5407,9 +5410,12 @@
       <c r="D2" s="100">
         <v>0</v>
       </c>
-      <c r="E2" s="275"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="100">
+        <v>0</v>
+      </c>
+      <c r="F2" s="275"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>269</v>
       </c>
@@ -5422,9 +5428,12 @@
       <c r="D3" s="100">
         <v>0</v>
       </c>
-      <c r="E3" s="275"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="100">
+        <v>0</v>
+      </c>
+      <c r="F3" s="275"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>270</v>
       </c>
@@ -5437,13 +5446,16 @@
       <c r="D4" s="100">
         <v>0</v>
       </c>
-      <c r="E4" s="275"/>
+      <c r="E4" s="100">
+        <v>0</v>
+      </c>
+      <c r="F4" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:D4">
+  <conditionalFormatting sqref="B2:E4">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -8619,7 +8631,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8837,7 +8849,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B14" s="103">
         <v>4</v>
@@ -8846,7 +8858,7 @@
         <v>93</v>
       </c>
       <c r="D14" s="107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="264"/>
     </row>
@@ -9105,7 +9117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -9273,7 +9285,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="225">
         <v>100</v>
@@ -9288,7 +9300,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="227">
         <v>3</v>
